--- a/uploads/memories.xlsx
+++ b/uploads/memories.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ysu+VY8EzKJS+aWjgWK0T2/SL6Q9OJ/Tmpi7k0nrrUs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="xlB0ReCY1LYWYtd0cCIizI59XiWlcnG++m12rHJjoXg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>tags</t>
+  </si>
+  <si>
     <t>photo_files</t>
   </si>
   <si>
@@ -51,19 +54,67 @@
     <t>audio_files</t>
   </si>
   <si>
+    <t>Dinner at Bistronomy</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Napier</t>
+  </si>
+  <si>
+    <t>delightful restaurant find when in Napier for Crowded House</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>FD0101.HEIC, FD0102.HEIC, FD0103.HEIC, FD0104.HEIC, FD0105.HEIC, FD0106.HEIC, FD0107.HEIC</t>
+  </si>
+  <si>
+    <t>Pho at Pho Tung</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Hoi An</t>
+  </si>
+  <si>
+    <t>best pho we've eaten in a wonderful family run restaurant</t>
+  </si>
+  <si>
+    <t>food, travel</t>
+  </si>
+  <si>
+    <t>FD0201.HEIC, FD0202.HEIC, FD0203.HEIC</t>
+  </si>
+  <si>
     <t>Hail at home</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>Wellington</t>
   </si>
   <si>
     <t>an unexpected hail storm that passed as swiftly as it arrived</t>
   </si>
   <si>
-    <t>cc624d12-4dfc-4889-8f57-f1c7f34787eb.JPG</t>
+    <t>event</t>
+  </si>
+  <si>
+    <t>EV0101.JPG</t>
+  </si>
+  <si>
+    <t>Ba ba lot</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>favourite food at Quan a co lieng</t>
+  </si>
+  <si>
+    <t>FD0301.PNG</t>
   </si>
   <si>
     <t>Temple adventure</t>
@@ -72,28 +123,124 @@
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Ankor Wat</t>
-  </si>
-  <si>
-    <t>visiting temples</t>
-  </si>
-  <si>
-    <t>IMG_6770.heic</t>
-  </si>
-  <si>
-    <t>Ba ba lot</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Ho Chi Minh</t>
-  </si>
-  <si>
-    <t>favourite food</t>
-  </si>
-  <si>
-    <t>File_015.png</t>
+    <t>Angkor Wat</t>
+  </si>
+  <si>
+    <t>a day visiting temples in and around Angkor Wat</t>
+  </si>
+  <si>
+    <t>travel, event</t>
+  </si>
+  <si>
+    <t>T0101.HEIC, T0102.HEIC, T0103.HEIC, T0104.HEIC, T0105.HEIC, T0106.HEIC, T0107.HEIC, T0108.HEIC, T01009.HEIC, T01010.HEIC, T0111.HEIC, T0112.HEIC</t>
+  </si>
+  <si>
+    <t>Sunrise at home</t>
+  </si>
+  <si>
+    <t>various dates</t>
+  </si>
+  <si>
+    <t>a selection of spectacular sunrises and weather from our home</t>
+  </si>
+  <si>
+    <t>E0201.HEIC, E0202.PNG, E0203.PNG, E0204.HEIC, E0205.HEIC, E0206.HEIC, E0207.HEIC, E0208.HEIC</t>
+  </si>
+  <si>
+    <t>Dinner at Ghost Street</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>returning to one of our favourite restaurants in Auckland</t>
+  </si>
+  <si>
+    <t>FD0401.HEIC</t>
+  </si>
+  <si>
+    <t>Pluto gig at Double Whammy</t>
+  </si>
+  <si>
+    <t>seeing Dan's favourite Kiwi band reuniting for one night only</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>M0101.HEIC</t>
+  </si>
+  <si>
+    <t>Day out with the kids</t>
+  </si>
+  <si>
+    <t>spending the day with Cece and Kobe</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>FA0101.MOV, FA0102.MOV, FA0103.HEIC, FA0104.HEIC, FA0105.HEIC, FA0106.HEIC, FA0107.HEIC, FA0108.HEIC, FA0109.HEIC</t>
+  </si>
+  <si>
+    <t>Crossing Tongariro</t>
+  </si>
+  <si>
+    <t>Tongariro</t>
+  </si>
+  <si>
+    <t>walking the Tongariro crossing together</t>
+  </si>
+  <si>
+    <t>EV0301.HEIC, EV0302.HEIC, EV0303.HEIC, EV0304.HEIC, EV0305.HEIC, EV0306.HEIC, EV0307.HEIC, EV0308.HEIC, EV0309.HEIC, EV0310.HEIC, EV0311.HEIC, EV0312.HEIC, EV0313.HEIC, EV0314.HEIC, EV0315.HEIC, EV0316.HEIC, EV0317.HEIC, EV0318.HEIC, EV0319.HEIC, EV0320.HEIC, EV0321.HEIC</t>
+  </si>
+  <si>
+    <t>Dad's 70th in Karkoura</t>
+  </si>
+  <si>
+    <t>Kaikoura</t>
+  </si>
+  <si>
+    <t>spending a weekend in Kaikoura for Dan's Dad's 70th birthday</t>
+  </si>
+  <si>
+    <t>family, event</t>
+  </si>
+  <si>
+    <t>FA0201.HEIC, FA0202.HEIC, FA0203.HEIC, FA0204.HEIC</t>
+  </si>
+  <si>
+    <t>Our engagement</t>
+  </si>
+  <si>
+    <t>photos of our engagement and the engagement ring</t>
+  </si>
+  <si>
+    <t>EV0401.HEIC, EV0402.HEIC, EV0403.HEIC, EV0404.JPG, EV0405.JPG, EV0406.JPG, EV0407.JPG, EV0408.HEIC, EV0409.MOV</t>
+  </si>
+  <si>
+    <t>Seeing Michael in Hong Kong</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>having cocktails with Michael at Iron Fairies in Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel </t>
+  </si>
+  <si>
+    <t>T0201.HEIC</t>
+  </si>
+  <si>
+    <t>Soti in Wellington</t>
+  </si>
+  <si>
+    <t>catching up with Soti at Pickle and Pie</t>
+  </si>
+  <si>
+    <t>FA0301.HEIC</t>
   </si>
 </sst>
 </file>
@@ -103,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -114,6 +261,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,19 +282,28 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -359,6 +520,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.0"/>
+    <col customWidth="1" min="2" max="2" width="13.56"/>
+    <col customWidth="1" min="3" max="3" width="10.22"/>
+    <col customWidth="1" min="4" max="4" width="8.67"/>
+    <col customWidth="1" min="5" max="5" width="7.33"/>
+    <col customWidth="1" min="6" max="7" width="12.78"/>
+    <col customWidth="1" min="8" max="8" width="25.44"/>
+    <col customWidth="1" min="9" max="9" width="10.22"/>
+    <col customWidth="1" min="10" max="10" width="17.44"/>
+    <col customWidth="1" min="11" max="11" width="9.44"/>
+    <col customWidth="1" min="12" max="12" width="8.78"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -394,92 +568,456 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
-        <v>-41.2954799654563</v>
-      </c>
-      <c r="F2" s="3">
-        <v>174.799988654323</v>
-      </c>
-      <c r="G2" s="4">
-        <v>45958.0</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="4">
+        <v>-39.4889855933606</v>
+      </c>
+      <c r="F2" s="4">
+        <v>176.918171525006</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44276.0</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2">
-        <v>13.4126780110813</v>
-      </c>
-      <c r="F3" s="2">
-        <v>103.866974967744</v>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
+        <v>15.8777112018275</v>
+      </c>
+      <c r="F3" s="6">
+        <v>108.328979895228</v>
       </c>
       <c r="G3" s="5">
-        <v>45859.0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>45828.0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-41.2954799654563</v>
+      </c>
+      <c r="F4" s="7">
+        <v>174.7999885</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45958.0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10.7716922873018</v>
+      </c>
+      <c r="F5" s="2">
+        <v>106.68578776771</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45860.0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10.7716922873018</v>
-      </c>
-      <c r="F4" s="2">
-        <v>106.68578776771</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13.4126780110813</v>
+      </c>
+      <c r="F6" s="2">
+        <v>103.866974967744</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45859.0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-41.2954799654563</v>
+      </c>
+      <c r="F7" s="7">
+        <v>174.7999886</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-36.8446415107819</v>
+      </c>
+      <c r="F8" s="6">
+        <v>174.768587611373</v>
+      </c>
+      <c r="G8" s="8">
+        <v>45969.0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-36.8573162559551</v>
+      </c>
+      <c r="F9" s="6">
+        <v>174.760031307669</v>
+      </c>
+      <c r="G9" s="8">
+        <v>45969.0</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-41.2889316739713</v>
+      </c>
+      <c r="F10" s="6">
+        <v>174.800056887522</v>
+      </c>
+      <c r="G10" s="8">
+        <v>45955.0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-39.1337067069664</v>
+      </c>
+      <c r="F11" s="6">
+        <v>175.655977735188</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44674.0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-42.400718306509</v>
+      </c>
+      <c r="F12" s="6">
+        <v>173.681216323288</v>
+      </c>
+      <c r="G12" s="8">
+        <v>44940.0</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-41.2954799654563</v>
+      </c>
+      <c r="F13" s="7">
+        <v>174.7999887</v>
+      </c>
+      <c r="G13" s="8">
+        <v>45808.0</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="6">
+        <v>22.282069528999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>114.154705499113</v>
+      </c>
+      <c r="G14" s="8">
         <v>45860.0</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-41.2896477452698</v>
+      </c>
+      <c r="F15" s="6">
+        <v>174.776203747817</v>
+      </c>
+      <c r="G15" s="8">
+        <v>45865.0</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/uploads/memories.xlsx
+++ b/uploads/memories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -144,7 +144,7 @@
     <t>a selection of spectacular sunrises and weather from our home</t>
   </si>
   <si>
-    <t>E0201.HEIC, E0202.PNG, E0203.PNG, E0204.HEIC, E0205.HEIC, E0206.HEIC, E0207.HEIC, E0208.HEIC</t>
+    <t>EV0201.HEIC, EV0202.PNG, EV0203.PNG, EV0204.HEIC, EV0205.HEIC, EV0206.HEIC, EV0207.HEIC, EV0208.HEIC</t>
   </si>
   <si>
     <t>Dinner at Ghost Street</t>
@@ -180,7 +180,7 @@
     <t>family</t>
   </si>
   <si>
-    <t>FA0101.MOV, FA0102.MOV, FA0103.HEIC, FA0104.HEIC, FA0105.HEIC, FA0106.HEIC, FA0107.HEIC, FA0108.HEIC, FA0109.HEIC</t>
+    <t>FA0101.MOV, FA0102.MOV, FA0103.HEIC, FA0104.HEIC, FA0106.HEIC, FA0107.HEIC, FA0109.HEIC</t>
   </si>
   <si>
     <t>Crossing Tongariro</t>
@@ -241,14 +241,63 @@
   </si>
   <si>
     <t>FA0301.HEIC</t>
+  </si>
+  <si>
+    <t>Blue Duck Station</t>
+  </si>
+  <si>
+    <t>Whanganui National Park</t>
+  </si>
+  <si>
+    <t>a surprise trip booked by Alex, to a spectacular and picturesque location</t>
+  </si>
+  <si>
+    <t>EV0501.JPEG, EV0502.JPEG, EV0503.JPEG, EV0504.JPEG, EV0505.JPEG, EV0506.JPEG, EV0507.JPEG, EV0508.JPEG, EV0509.JPEG, EV0510.JPEG, EV0511.JPEG, EV0512.JPEG, EV0513.JPEG, EV0514.JPEG, EV0515.JPEG, EV0516.JPEG</t>
+  </si>
+  <si>
+    <t>Chefs Table</t>
+  </si>
+  <si>
+    <t>on top of the world, sharing the best meal we've had</t>
+  </si>
+  <si>
+    <t>FD0501.JPEG, FD0502.JPEG, FD0503.JPEG, FD0504.JPEG, FD0505.JPEG, FD0506.JPEG, FD0507.JPEG, FD0508.JPEG, FD0509.JPEG, FD0510.JPEG, FD0511.JPEG, FD0512.JPEG, FD0513.JPEG, FD0514.JPEG, FD0515.JPEG, FD0516.JPEG, FD0517.JPEG, FD0518.JPEG, FD0519.JPEG</t>
+  </si>
+  <si>
+    <t>Sydney visit</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>catching up with friends in Sydney</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>T0301.JPEG, T0302.JPEG, T0303.JPEG, T0304.JPEG, T0305.JPEG</t>
+  </si>
+  <si>
+    <t>Quay restaurant</t>
+  </si>
+  <si>
+    <t>a Michelin starred meal for Alex's birthday</t>
+  </si>
+  <si>
+    <t>FD0601.JPEG, FD0602.JPEG, FD0603.JPEG, FD0604.JPEG, FD0605.JPEG, FD0606.JPEG, FD0607.JPEG, FD0608.JPEG, FD0609.JPEG, FD0610.JPEG, FD0611.JPEG, FD06012JPEG, FD0613.JPEG, FD0614.JPEG, FD0615.JPEG, FD0616.JPEG, FD0617.JPEG, FD0618.JPEG, FD0619.JPEG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -282,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -306,6 +355,9 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1018,6 +1070,134 @@
       </c>
       <c r="J15" s="6" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-39.1060708640499</v>
+      </c>
+      <c r="F16" s="6">
+        <v>175.072770580047</v>
+      </c>
+      <c r="G16" s="8">
+        <v>45438.0</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-39.1371237525731</v>
+      </c>
+      <c r="F17" s="6">
+        <v>175.063410264329</v>
+      </c>
+      <c r="G17" s="8">
+        <v>45438.0</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-33.8776089326146</v>
+      </c>
+      <c r="F18" s="6">
+        <v>151.103222553193</v>
+      </c>
+      <c r="G18" s="8">
+        <v>45368.0</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-33.8574350305951</v>
+      </c>
+      <c r="F19" s="6">
+        <v>151.210148768535</v>
+      </c>
+      <c r="G19" s="9">
+        <v>45367.0</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/uploads/memories.xlsx
+++ b/uploads/memories.xlsx
@@ -288,7 +288,7 @@
     <t>a Michelin starred meal for Alex's birthday</t>
   </si>
   <si>
-    <t>FD0601.JPEG, FD0602.JPEG, FD0603.JPEG, FD0604.JPEG, FD0605.JPEG, FD0606.JPEG, FD0607.JPEG, FD0608.JPEG, FD0609.JPEG, FD0610.JPEG, FD0611.JPEG, FD06012JPEG, FD0613.JPEG, FD0614.JPEG, FD0615.JPEG, FD0616.JPEG, FD0617.JPEG, FD0618.JPEG, FD0619.JPEG</t>
+    <t>FD0601.JPEG, FD0602.JPEG, FD0603.JPEG, FD0604.JPEG, FD0605.JPEG, FD0606.JPEG, FD0607.JPEG, FD0608.JPEG, FD0609.JPEG, FD0610.JPEG, FD0611.JPEG, FD0612JPEG, FD0613.JPEG, FD0614.JPEG, FD0615.JPEG, FD0616.JPEG, FD0617.JPEG, FD0618.JPEG, FD0619.JPEG</t>
   </si>
 </sst>
 </file>
